--- a/DSKhuyenMai.xlsx
+++ b/DSKhuyenMai.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Mã KM</t>
   </si>
@@ -29,67 +29,46 @@
     <t>Phần trăm</t>
   </si>
   <si>
+    <t>KM001</t>
+  </si>
+  <si>
+    <t>Noel 2023</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
     <t>KM002</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>2023-12-15</t>
+    <t>T?t Tây 2023</t>
+  </si>
+  <si>
+    <t>2023-12-25</t>
   </si>
   <si>
     <t>KM003</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>2023-12-12</t>
+    <t>Ngày hội giảm giá</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
   </si>
   <si>
     <t>KM004</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
+    <t>Tết đến xuân về</t>
+  </si>
+  <si>
+    <t>2023-12-14</t>
   </si>
   <si>
     <t>KM005</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>KM006</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>KM007</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>KM008</t>
-  </si>
-  <si>
-    <t>Siu</t>
-  </si>
-  <si>
-    <t>KM009</t>
-  </si>
-  <si>
-    <t>Ngày hội giảm giá</t>
-  </si>
-  <si>
-    <t>2023-12-05</t>
+    <t>Siêu giảm giá</t>
   </si>
 </sst>
 </file>
@@ -134,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -171,7 +150,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
@@ -188,7 +167,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="4">
@@ -205,7 +184,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
@@ -216,21 +195,21 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -239,58 +218,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
     </row>
   </sheetData>
